--- a/06-03-2023/data/output/xlsx/Causality for Category/5.xlsx
+++ b/06-03-2023/data/output/xlsx/Causality for Category/5.xlsx
@@ -49,69 +49,66 @@
     <t>Causality</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2</t>
+  </si>
+  <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__10</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__11</t>
   </si>
   <si>
@@ -136,75 +133,75 @@
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
-    <t>num_of_decimals__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__19</t>
   </si>
   <si>
     <t>num_of_decimals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_decimals__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_decimals__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_decimals__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_decimals__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_decimals__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_decimals__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_decimals__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_decimals__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_decimals__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_decimals__11</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_decimals__12</t>
   </si>
   <si>
@@ -259,45 +256,45 @@
     <t>num_of_decimals__29</t>
   </si>
   <si>
-    <t>num_of_equals__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_decimals__30</t>
   </si>
   <si>
     <t>num_of_equals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_equals__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_equals__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_equals__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_equals__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_equals__6</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_equals__7</t>
   </si>
   <si>
@@ -319,39 +316,39 @@
     <t>num_of_equals__13</t>
   </si>
   <si>
-    <t>num_of_mults_and_divs__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_equals__14</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__5</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__6</t>
   </si>
   <si>
@@ -376,7 +373,7 @@
     <t>num_of_mults_and_divs__13</t>
   </si>
   <si>
-    <t>num_of_unknowns__0</t>
+    <t>num_of_mults_and_divs__14</t>
   </si>
   <si>
     <t>num_of_unknowns__1</t>
@@ -385,12 +382,12 @@
     <t>num_of_unknowns__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
     <t>num_of_unknowns__3</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_unknowns__4</t>
   </si>
   <si>
@@ -418,21 +415,21 @@
     <t>num_of_unknowns__12</t>
   </si>
   <si>
-    <t>pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__1</t>
+    <t>num_of_unknowns__13</t>
   </si>
   <si>
     <t>pairs_of_parentheses__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__3</t>
   </si>
   <si>
@@ -467,6 +464,9 @@
   </si>
   <si>
     <t>pairs_of_parentheses__14</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>

--- a/06-03-2023/data/output/xlsx/Causality for Category/5.xlsx
+++ b/06-03-2023/data/output/xlsx/Causality for Category/5.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="183">
   <si>
     <t>Causality Values Chart</t>
   </si>
@@ -52,61 +52,55 @@
     <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>n/a</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__11</t>
@@ -139,87 +133,105 @@
     <t>num_of_decimals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__12</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>num_of_decimals__13</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>num_of_decimals__14</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>num_of_decimals__15</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>num_of_decimals__16</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>num_of_decimals__17</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>num_of_decimals__18</t>
   </si>
   <si>
@@ -262,42 +274,39 @@
     <t>num_of_equals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
     <t>num_of_equals__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
     <t>num_of_equals__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_equals__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_equals__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_equals__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_equals__7</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>num_of_equals__8</t>
   </si>
   <si>
@@ -322,57 +331,81 @@
     <t>num_of_mults_and_divs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__6</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__7</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__8</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__9</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__10</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__11</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__12</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__13</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__14</t>
   </si>
   <si>
@@ -385,24 +418,39 @@
     <t>num_of_unknowns__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_unknowns__4</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>num_of_unknowns__5</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>num_of_unknowns__6</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>num_of_unknowns__7</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>num_of_unknowns__8</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>num_of_unknowns__9</t>
   </si>
   <si>
@@ -421,28 +469,43 @@
     <t>pairs_of_parentheses__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>pairs_of_parentheses__3</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__4</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__5</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__6</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__7</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>pairs_of_parentheses__8</t>
@@ -666,34 +729,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.01021450459652707</c:v>
+                  <c:v>0.08069458631256383</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.009685230024213076</c:v>
+                  <c:v>0.07263922518159806</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01941747572815534</c:v>
+                  <c:v>0.1100323624595469</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0303030303030303</c:v>
+                  <c:v>0.1262626262626263</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.04761904761904762</c:v>
+                  <c:v>0.1428571428571428</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.05063291139240506</c:v>
+                  <c:v>0.1265822784810127</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0576923076923077</c:v>
+                  <c:v>0.09615384615384616</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.025</c:v>
+                  <c:v>0.075</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.04545454545454546</c:v>
+                  <c:v>0.09090909090909091</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.05555555555555555</c:v>
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -750,7 +813,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 5</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -814,10 +877,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>MultsDivs!$C$4:$C$10</c:f>
+              <c:f>MultsDivs!$C$4:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -832,30 +895,78 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MultsDivs!$D$4:$D$10</c:f>
+              <c:f>MultsDivs!$D$4:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.0160427807486631</c:v>
+                  <c:v>0.2085561497326203</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01408450704225352</c:v>
+                  <c:v>0.2323943661971831</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01075268817204301</c:v>
+                  <c:v>0.2903225806451613</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0136986301369863</c:v>
+                  <c:v>0.3013698630136986</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.01851851851851852</c:v>
+                  <c:v>0.3518518518518519</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3513513513513514</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2941176470588235</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -912,7 +1023,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 5</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -976,10 +1087,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Equations!$C$4:$C$11</c:f>
+              <c:f>Equations!$C$4:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -997,33 +1108,57 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Equations!$D$4:$D$11</c:f>
+              <c:f>Equations!$D$4:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.01003009027081244</c:v>
+                  <c:v>0.08124373119358075</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01009081735620585</c:v>
+                  <c:v>0.07769929364278506</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01855287569573284</c:v>
+                  <c:v>0.1150278293135436</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.02034883720930233</c:v>
+                  <c:v>0.1279069767441861</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.02941176470588235</c:v>
+                  <c:v>0.1274509803921569</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.02205882352941177</c:v>
+                  <c:v>0.1102941176470588</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.09782608695652174</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.07407407407407407</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.05714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05882352941176471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1080,7 +1215,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 5</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1144,10 +1279,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Decimals!$C$4:$C$16</c:f>
+              <c:f>Decimals!$C$4:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1180,48 +1315,84 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Decimals!$D$4:$D$16</c:f>
+              <c:f>Decimals!$D$4:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.0112540192926045</c:v>
+                  <c:v>0.1077170418006431</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01219512195121951</c:v>
+                  <c:v>0.1158536585365854</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01095890410958904</c:v>
+                  <c:v>0.1342465753424658</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0158102766798419</c:v>
+                  <c:v>0.1739130434782609</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.01796407185628742</c:v>
+                  <c:v>0.1736526946107785</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.02380952380952381</c:v>
+                  <c:v>0.1904761904761905</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.03529411764705882</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.04615384615384616</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.02439024390243903</c:v>
+                  <c:v>0.1951219512195122</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.03225806451612903</c:v>
+                  <c:v>0.1935483870967742</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.04347826086956522</c:v>
+                  <c:v>0.1739130434782609</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1278,7 +1449,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 5</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1342,10 +1513,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Unknowns!$C$4:$C$8</c:f>
+              <c:f>Unknowns!$C$4:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1354,24 +1525,54 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Unknowns!$D$4:$D$8</c:f>
+              <c:f>Unknowns!$D$4:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.01002004008016032</c:v>
+                  <c:v>0.08216432865731463</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.008784773060029283</c:v>
+                  <c:v>0.05856515373352855</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01052631578947368</c:v>
+                  <c:v>0.1368421052631579</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1153846153846154</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1304347826086956</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.09090909090909091</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1428571428571428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1428,7 +1629,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 5</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1492,30 +1693,60 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$C$4:$C$7</c:f>
+              <c:f>PairsOfParentheses!$C$4:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$D$4:$D$7</c:f>
+              <c:f>PairsOfParentheses!$D$4:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.02010050251256281</c:v>
+                  <c:v>0.1105527638190955</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.03821656050955414</c:v>
+                  <c:v>0.1719745222929936</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.186046511627907</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2352941176470588</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1572,7 +1803,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 5</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2138,16 +2369,14 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01021450459652707</v>
+        <v>0.08069458631256383</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F3" s="1" t="s">
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.02632877414108026</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2161,19 +2390,19 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>0.009685230024213076</v>
+        <v>0.07263922518159806</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1">
         <v>309</v>
@@ -2182,21 +2411,21 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>0.01941747572815534</v>
+        <v>0.1100323624595469</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="1">
-        <v>0.01518296731970747</v>
+        <v>0.08638381141486071</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>198</v>
@@ -2205,21 +2434,21 @@
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0303030303030303</v>
+        <v>0.1262626262626263</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1">
-        <v>0.02375722428871376</v>
+        <v>0.001924126962059656</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
         <v>105</v>
@@ -2228,21 +2457,21 @@
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>0.04761904761904762</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="1">
-        <v>0.03105579330796324</v>
+        <v>-0.007646164927067469</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1">
         <v>79</v>
@@ -2251,21 +2480,21 @@
         <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>0.05063291139240506</v>
+        <v>0.1265822784810127</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="1">
-        <v>0.03404544750969844</v>
+        <v>-0.1126092299705117</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>52</v>
@@ -2274,21 +2503,21 @@
         <v>7</v>
       </c>
       <c r="D9" s="1">
-        <v>0.0576923076923077</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" s="1">
-        <v>0.02769984519880284</v>
+        <v>-0.1551482527517238</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1">
         <v>40</v>
@@ -2297,21 +2526,19 @@
         <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>0.025</v>
+        <v>0.075</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="1">
-        <v>-0.01655667664667364</v>
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1">
         <v>22</v>
@@ -2320,21 +2547,21 @@
         <v>9</v>
       </c>
       <c r="D11" s="1">
-        <v>0.04545454545454546</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G11" s="1">
-        <v>-0.001796058319777319</v>
+        <v>-0.1644212662565382</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1">
         <v>18</v>
@@ -2343,21 +2570,21 @@
         <v>10</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05555555555555555</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G12" s="1">
-        <v>0.002841772629739915</v>
+        <v>-0.1572922690479204</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1">
         <v>10</v>
@@ -2369,16 +2596,16 @@
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1">
         <v>9</v>
@@ -2390,16 +2617,16 @@
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1">
         <v>8</v>
@@ -2411,16 +2638,16 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1">
         <v>7</v>
@@ -2432,16 +2659,16 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1">
         <v>6</v>
@@ -2453,16 +2680,16 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1">
         <v>4</v>
@@ -2474,16 +2701,16 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
@@ -2495,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
@@ -2516,16 +2743,16 @@
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -2537,16 +2764,16 @@
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B22" s="1">
         <v>622</v>
@@ -2555,21 +2782,21 @@
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>0.0112540192926045</v>
+        <v>0.1077170418006431</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G22" s="1">
-        <v>-0.02103021597593602</v>
+        <v>0.1271824807824654</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B23" s="1">
         <v>492</v>
@@ -2578,21 +2805,21 @@
         <v>21</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01219512195121951</v>
+        <v>0.1158536585365854</v>
       </c>
       <c r="E23" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G23" s="1">
-        <v>-0.004399182981365098</v>
+        <v>0.1257842754192423</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1">
         <v>365</v>
@@ -2601,21 +2828,21 @@
         <v>22</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01095890410958904</v>
+        <v>0.1342465753424658</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G24" s="1">
-        <v>-0.001651627350047275</v>
+        <v>0.1478917424586461</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1">
         <v>253</v>
@@ -2624,21 +2851,21 @@
         <v>23</v>
       </c>
       <c r="D25" s="1">
-        <v>0.0158102766798419</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G25" s="1">
-        <v>0.002967707550116865</v>
+        <v>0.1635518095431626</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1">
         <v>167</v>
@@ -2647,21 +2874,21 @@
         <v>24</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01796407185628742</v>
+        <v>0.1736526946107785</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G26" s="1">
-        <v>-0.00034252731533862</v>
+        <v>0.1236274059486891</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B27" s="1">
         <v>126</v>
@@ -2670,21 +2897,21 @@
         <v>25</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02380952380952381</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="E27" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G27" s="1">
-        <v>0.004108029571116359</v>
+        <v>0.1002063651732901</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B28" s="1">
         <v>85</v>
@@ -2693,21 +2920,21 @@
         <v>26</v>
       </c>
       <c r="D28" s="1">
-        <v>0.03529411764705882</v>
+        <v>0.2</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G28" s="1">
-        <v>0.01227843216502826</v>
+        <v>0.03267585866382281</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B29" s="1">
         <v>65</v>
@@ -2716,21 +2943,21 @@
         <v>27</v>
       </c>
       <c r="D29" s="1">
-        <v>0.04615384615384616</v>
+        <v>0.2</v>
       </c>
       <c r="E29" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G29" s="1">
-        <v>0.01983430264377283</v>
+        <v>-0.09657154919874421</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B30" s="1">
         <v>41</v>
@@ -2739,21 +2966,21 @@
         <v>28</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02439024390243903</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G30" s="1">
-        <v>-0.002562360744705441</v>
+        <v>-0.1136175865170505</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B31" s="1">
         <v>31</v>
@@ -2762,21 +2989,21 @@
         <v>29</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03225806451612903</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="E31" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G31" s="1">
-        <v>0.004424285140150669</v>
+        <v>-0.09011933698028152</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B32" s="1">
         <v>23</v>
@@ -2785,21 +3012,21 @@
         <v>30</v>
       </c>
       <c r="D32" s="1">
-        <v>0.04347826086956522</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G32" s="1">
-        <v>0.0142487495493607</v>
+        <v>-0.09434002011475648</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B33" s="1">
         <v>15</v>
@@ -2808,19 +3035,21 @@
         <v>31</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E33" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1" t="s">
-        <v>12</v>
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="1">
+        <v>-0.1336027439940709</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B34" s="1">
         <v>10</v>
@@ -2829,14 +3058,16 @@
         <v>32</v>
       </c>
       <c r="D34" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E34" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1" t="s">
-        <v>12</v>
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34" s="1">
+        <v>-0.09589418531312852</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2850,19 +3081,21 @@
         <v>33</v>
       </c>
       <c r="D35" s="1">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E35" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1" t="s">
-        <v>12</v>
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" s="1">
+        <v>-0.1353137588141644</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B36" s="1">
         <v>6</v>
@@ -2871,19 +3104,21 @@
         <v>34</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E36" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1" t="s">
-        <v>12</v>
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36" s="1">
+        <v>-0.06893836284598526</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B37" s="1">
         <v>6</v>
@@ -2892,19 +3127,21 @@
         <v>35</v>
       </c>
       <c r="D37" s="1">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E37" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1" t="s">
-        <v>12</v>
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" s="1">
+        <v>-0.06893836284598526</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B38" s="1">
         <v>5</v>
@@ -2913,19 +3150,21 @@
         <v>36</v>
       </c>
       <c r="D38" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E38" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1" t="s">
-        <v>12</v>
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G38" s="1">
+        <v>-0.04432089688131061</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B39" s="1">
         <v>4</v>
@@ -2937,16 +3176,16 @@
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B40" s="1">
         <v>4</v>
@@ -2958,16 +3197,16 @@
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B41" s="1">
         <v>3</v>
@@ -2979,16 +3218,16 @@
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B42" s="1">
         <v>2</v>
@@ -3000,16 +3239,16 @@
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B43" s="1">
         <v>2</v>
@@ -3021,16 +3260,16 @@
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B44" s="1">
         <v>2</v>
@@ -3042,16 +3281,16 @@
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B45" s="1">
         <v>2</v>
@@ -3063,16 +3302,16 @@
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B46" s="1">
         <v>1</v>
@@ -3084,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B47" s="1">
         <v>1</v>
@@ -3105,16 +3344,16 @@
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
@@ -3126,16 +3365,16 @@
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
@@ -3147,16 +3386,16 @@
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B50" s="1">
         <v>1</v>
@@ -3168,16 +3407,16 @@
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B51" s="1">
         <v>1</v>
@@ -3189,16 +3428,16 @@
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B52" s="1">
         <v>997</v>
@@ -3207,21 +3446,19 @@
         <v>50</v>
       </c>
       <c r="D52" s="1">
-        <v>0.01003009027081244</v>
+        <v>0.08124373119358075</v>
       </c>
       <c r="E52" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G52" s="1">
-        <v>0.0260035661581928</v>
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B53" s="1">
         <v>991</v>
@@ -3230,21 +3467,19 @@
         <v>51</v>
       </c>
       <c r="D53" s="1">
-        <v>0.01009081735620585</v>
+        <v>0.07769929364278506</v>
       </c>
       <c r="E53" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G53" s="1">
-        <v>0.02604970712571241</v>
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B54" s="1">
         <v>539</v>
@@ -3253,21 +3488,21 @@
         <v>52</v>
       </c>
       <c r="D54" s="1">
-        <v>0.01855287569573284</v>
+        <v>0.1150278293135436</v>
       </c>
       <c r="E54" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G54" s="1">
-        <v>0.02770431201074453</v>
+        <v>0.169703901277063</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B55" s="1">
         <v>344</v>
@@ -3276,21 +3511,21 @@
         <v>53</v>
       </c>
       <c r="D55" s="1">
-        <v>0.02034883720930233</v>
+        <v>0.1279069767441861</v>
       </c>
       <c r="E55" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G55" s="1">
-        <v>0.01331639546325525</v>
+        <v>0.09470400868665446</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B56" s="1">
         <v>204</v>
@@ -3299,21 +3534,21 @@
         <v>54</v>
       </c>
       <c r="D56" s="1">
-        <v>0.02941176470588235</v>
+        <v>0.1274509803921569</v>
       </c>
       <c r="E56" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G56" s="1">
-        <v>0.01663862968198013</v>
+        <v>0.05102649306140435</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B57" s="1">
         <v>136</v>
@@ -3322,21 +3557,21 @@
         <v>55</v>
       </c>
       <c r="D57" s="1">
-        <v>0.02205882352941177</v>
+        <v>0.1102941176470588</v>
       </c>
       <c r="E57" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G57" s="1">
-        <v>-0.0410672914406295</v>
+        <v>-0.1023770146365572</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B58" s="1">
         <v>92</v>
@@ -3345,19 +3580,21 @@
         <v>56</v>
       </c>
       <c r="D58" s="1">
-        <v>0</v>
+        <v>0.09782608695652174</v>
       </c>
       <c r="E58" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1" t="s">
-        <v>12</v>
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G58" s="1">
+        <v>-0.1240940575389684</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B59" s="1">
         <v>54</v>
@@ -3366,19 +3603,19 @@
         <v>57</v>
       </c>
       <c r="D59" s="1">
-        <v>0</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="E59" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B60" s="1">
         <v>35</v>
@@ -3387,19 +3624,19 @@
         <v>58</v>
       </c>
       <c r="D60" s="1">
-        <v>0</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="E60" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B61" s="1">
         <v>17</v>
@@ -3408,19 +3645,19 @@
         <v>59</v>
       </c>
       <c r="D61" s="1">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="E61" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B62" s="1">
         <v>9</v>
@@ -3432,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B63" s="1">
         <v>5</v>
@@ -3453,16 +3690,16 @@
         <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B64" s="1">
         <v>1</v>
@@ -3474,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B65" s="1">
         <v>1</v>
@@ -3495,16 +3732,16 @@
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B66" s="1">
         <v>187</v>
@@ -3513,21 +3750,21 @@
         <v>64</v>
       </c>
       <c r="D66" s="1">
-        <v>0.0160427807486631</v>
+        <v>0.2085561497326203</v>
       </c>
       <c r="E66" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G66" s="1">
-        <v>-0.02780081160528084</v>
+        <v>0.03381463299820017</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B67" s="1">
         <v>142</v>
@@ -3536,21 +3773,21 @@
         <v>65</v>
       </c>
       <c r="D67" s="1">
-        <v>0.01408450704225352</v>
+        <v>0.2323943661971831</v>
       </c>
       <c r="E67" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G67" s="1">
-        <v>-0.02592572752686061</v>
+        <v>0.03418917756390273</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B68" s="1">
         <v>93</v>
@@ -3559,21 +3796,21 @@
         <v>66</v>
       </c>
       <c r="D68" s="1">
-        <v>0.01075268817204301</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="E68" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G68" s="1">
-        <v>-0.02676198429312678</v>
+        <v>0.06469477483603274</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B69" s="1">
         <v>73</v>
@@ -3582,21 +3819,21 @@
         <v>67</v>
       </c>
       <c r="D69" s="1">
-        <v>0.0136986301369863</v>
+        <v>0.3013698630136986</v>
       </c>
       <c r="E69" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G69" s="1">
-        <v>-0.02398842141148719</v>
+        <v>0.05548915956169314</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B70" s="1">
         <v>54</v>
@@ -3605,21 +3842,21 @@
         <v>68</v>
       </c>
       <c r="D70" s="1">
-        <v>0.01851851851851852</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="E70" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G70" s="1">
-        <v>-0.02146505634246568</v>
+        <v>0.0745167330135212</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B71" s="1">
         <v>37</v>
@@ -3628,19 +3865,21 @@
         <v>69</v>
       </c>
       <c r="D71" s="1">
-        <v>0</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="E71" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1" t="s">
-        <v>12</v>
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0.02623481999442861</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B72" s="1">
         <v>22</v>
@@ -3649,19 +3888,21 @@
         <v>70</v>
       </c>
       <c r="D72" s="1">
-        <v>0</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="E72" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1" t="s">
-        <v>12</v>
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0.07126151104403593</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B73" s="1">
         <v>17</v>
@@ -3670,19 +3911,21 @@
         <v>71</v>
       </c>
       <c r="D73" s="1">
-        <v>0</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="E73" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1" t="s">
-        <v>12</v>
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0.09852440009467178</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B74" s="1">
         <v>11</v>
@@ -3691,19 +3934,21 @@
         <v>72</v>
       </c>
       <c r="D74" s="1">
-        <v>0</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="E74" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1" t="s">
-        <v>12</v>
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0.07583757714327304</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B75" s="1">
         <v>8</v>
@@ -3712,19 +3957,21 @@
         <v>73</v>
       </c>
       <c r="D75" s="1">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="E75" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1" t="s">
-        <v>12</v>
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0.1297135002106323</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B76" s="1">
         <v>5</v>
@@ -3733,19 +3980,21 @@
         <v>74</v>
       </c>
       <c r="D76" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E76" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1" t="s">
-        <v>12</v>
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0.1594247236875231</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B77" s="1">
         <v>3</v>
@@ -3754,19 +4003,21 @@
         <v>75</v>
       </c>
       <c r="D77" s="1">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E77" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1" t="s">
-        <v>12</v>
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0.09899872323779739</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B78" s="1">
         <v>2</v>
@@ -3775,19 +4026,21 @@
         <v>76</v>
       </c>
       <c r="D78" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E78" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1" t="s">
-        <v>12</v>
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0.2712112049364105</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B79" s="1">
         <v>1</v>
@@ -3799,16 +4052,16 @@
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B80" s="1">
         <v>998</v>
@@ -3817,19 +4070,19 @@
         <v>78</v>
       </c>
       <c r="D80" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="E80" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="B81" s="1">
         <v>683</v>
@@ -3838,19 +4091,19 @@
         <v>79</v>
       </c>
       <c r="D81" s="1">
-        <v>0.008784773060029283</v>
+        <v>0.05856515373352855</v>
       </c>
       <c r="E81" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="B82" s="1">
         <v>95</v>
@@ -3859,21 +4112,21 @@
         <v>80</v>
       </c>
       <c r="D82" s="1">
-        <v>0.01052631578947368</v>
+        <v>0.1368421052631579</v>
       </c>
       <c r="E82" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="G82" s="1">
-        <v>-0.02099451920645103</v>
+        <v>0.002352394925972632</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="B83" s="1">
         <v>52</v>
@@ -3882,19 +4135,21 @@
         <v>81</v>
       </c>
       <c r="D83" s="1">
-        <v>0</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="E83" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1" t="s">
-        <v>12</v>
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G83" s="1">
+        <v>-0.07359780089501224</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B84" s="1">
         <v>23</v>
@@ -3903,19 +4158,21 @@
         <v>82</v>
       </c>
       <c r="D84" s="1">
-        <v>0</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="E84" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1" t="s">
-        <v>12</v>
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G84" s="1">
+        <v>-0.01757876554337365</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B85" s="1">
         <v>14</v>
@@ -3924,19 +4181,21 @@
         <v>83</v>
       </c>
       <c r="D85" s="1">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E85" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1" t="s">
-        <v>12</v>
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G85" s="1">
+        <v>-0.1071074439503661</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="B86" s="1">
         <v>11</v>
@@ -3945,19 +4204,21 @@
         <v>84</v>
       </c>
       <c r="D86" s="1">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E86" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1" t="s">
-        <v>12</v>
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G86" s="1">
+        <v>-0.1499591968578264</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B87" s="1">
         <v>7</v>
@@ -3966,19 +4227,21 @@
         <v>85</v>
       </c>
       <c r="D87" s="1">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E87" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1" t="s">
-        <v>12</v>
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G87" s="1">
+        <v>-0.1347014318223251</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="B88" s="1">
         <v>5</v>
@@ -3990,16 +4253,16 @@
         <v>0</v>
       </c>
       <c r="E88" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="B89" s="1">
         <v>3</v>
@@ -4011,16 +4274,16 @@
         <v>0</v>
       </c>
       <c r="E89" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="B90" s="1">
         <v>2</v>
@@ -4032,16 +4295,16 @@
         <v>0</v>
       </c>
       <c r="E90" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="B91" s="1">
         <v>1</v>
@@ -4053,16 +4316,16 @@
         <v>0</v>
       </c>
       <c r="E91" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="B92" s="1">
         <v>1</v>
@@ -4074,16 +4337,16 @@
         <v>0</v>
       </c>
       <c r="E92" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="B93" s="1">
         <v>398</v>
@@ -4092,21 +4355,21 @@
         <v>91</v>
       </c>
       <c r="D93" s="1">
-        <v>0.02010050251256281</v>
+        <v>0.1105527638190955</v>
       </c>
       <c r="E93" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="G93" s="1">
-        <v>0.01928833903956039</v>
+        <v>-0.0143626113998138</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="B94" s="1">
         <v>157</v>
@@ -4115,21 +4378,21 @@
         <v>92</v>
       </c>
       <c r="D94" s="1">
-        <v>0.03821656050955414</v>
+        <v>0.1719745222929936</v>
       </c>
       <c r="E94" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="G94" s="1">
-        <v>0.02760536461116285</v>
+        <v>-0.005329029646100083</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="B95" s="1">
         <v>75</v>
@@ -4138,19 +4401,21 @@
         <v>93</v>
       </c>
       <c r="D95" s="1">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E95" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1" t="s">
-        <v>12</v>
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G95" s="1">
+        <v>-0.04047958343876185</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="B96" s="1">
         <v>43</v>
@@ -4159,19 +4424,21 @@
         <v>94</v>
       </c>
       <c r="D96" s="1">
-        <v>0</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="E96" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1" t="s">
-        <v>12</v>
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G96" s="1">
+        <v>-0.0289867150681048</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="B97" s="1">
         <v>25</v>
@@ -4180,19 +4447,21 @@
         <v>95</v>
       </c>
       <c r="D97" s="1">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="E97" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1" t="s">
-        <v>12</v>
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0.01626802295226923</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="B98" s="1">
         <v>17</v>
@@ -4201,19 +4470,21 @@
         <v>96</v>
       </c>
       <c r="D98" s="1">
-        <v>0</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="E98" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1" t="s">
-        <v>12</v>
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0.01475025013009221</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="B99" s="1">
         <v>8</v>
@@ -4222,19 +4493,21 @@
         <v>97</v>
       </c>
       <c r="D99" s="1">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="E99" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1" t="s">
-        <v>12</v>
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G99" s="1">
+        <v>-0.1132408227050917</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="B100" s="1">
         <v>4</v>
@@ -4246,16 +4519,16 @@
         <v>0</v>
       </c>
       <c r="E100" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="B101" s="1">
         <v>3</v>
@@ -4267,16 +4540,16 @@
         <v>0</v>
       </c>
       <c r="E101" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="B102" s="1">
         <v>3</v>
@@ -4288,16 +4561,16 @@
         <v>0</v>
       </c>
       <c r="E102" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="B103" s="1">
         <v>3</v>
@@ -4309,16 +4582,16 @@
         <v>0</v>
       </c>
       <c r="E103" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="B104" s="1">
         <v>3</v>
@@ -4330,16 +4603,16 @@
         <v>0</v>
       </c>
       <c r="E104" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="B105" s="1">
         <v>2</v>
@@ -4351,16 +4624,16 @@
         <v>0</v>
       </c>
       <c r="E105" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="B106" s="1">
         <v>1</v>
@@ -4372,16 +4645,16 @@
         <v>0</v>
       </c>
       <c r="E106" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="B107" s="1">
         <v>1</v>
@@ -4393,11 +4666,11 @@
         <v>0</v>
       </c>
       <c r="E107" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4418,7 +4691,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4441,25 +4714,25 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -4473,13 +4746,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.01021450459652707</v>
+        <v>0.08069458631256383</v>
       </c>
       <c r="E4" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F4" s="1">
-        <v>0.0001944645163667481</v>
+        <v>-0.001469742344750793</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -4516,13 +4789,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.009685230024213076</v>
+        <v>0.07263922518159806</v>
       </c>
       <c r="E5" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F5" s="1">
-        <v>-0.0003348100559472447</v>
+        <v>-0.00952510347571657</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -4550,7 +4823,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3">
         <v>309</v>
@@ -4559,13 +4832,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.01941747572815534</v>
+        <v>0.1100323624595469</v>
       </c>
       <c r="E6" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F6" s="1">
-        <v>0.009397435647995018</v>
+        <v>0.02786803380223229</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -4593,7 +4866,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3">
         <v>198</v>
@@ -4602,13 +4875,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.0303030303030303</v>
+        <v>0.1262626262626263</v>
       </c>
       <c r="E7" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F7" s="1">
-        <v>0.02028299022286998</v>
+        <v>0.04409829760531164</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -4636,7 +4909,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3">
         <v>105</v>
@@ -4645,13 +4918,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.04761904761904762</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E8" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F8" s="1">
-        <v>0.0375990075388873</v>
+        <v>0.06069281419982822</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -4679,7 +4952,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3">
         <v>79</v>
@@ -4688,13 +4961,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.05063291139240506</v>
+        <v>0.1265822784810127</v>
       </c>
       <c r="E9" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F9" s="1">
-        <v>0.04061287131224474</v>
+        <v>0.04441794982369804</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -4722,7 +4995,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3">
         <v>52</v>
@@ -4731,13 +5004,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.0576923076923077</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="E10" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F10" s="1">
-        <v>0.04767226761214738</v>
+        <v>0.01398951749653153</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -4765,7 +5038,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3">
         <v>40</v>
@@ -4774,13 +5047,13 @@
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.025</v>
+        <v>0.075</v>
       </c>
       <c r="E11" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F11" s="1">
-        <v>0.01497995991983968</v>
+        <v>-0.007164328657314631</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -4808,7 +5081,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="3">
         <v>22</v>
@@ -4817,13 +5090,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>0.04545454545454546</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E12" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F12" s="1">
-        <v>0.03543450537438514</v>
+        <v>0.008744762251776284</v>
       </c>
       <c r="G12" s="1">
         <f>1/(POWER(B12,1.5))</f>
@@ -4851,7 +5124,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3">
         <v>18</v>
@@ -4860,13 +5133,13 @@
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E13" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F13" s="1">
-        <v>0.04553551547539524</v>
+        <v>0.02894678245379648</v>
       </c>
       <c r="G13" s="1">
         <f>1/(POWER(B13,1.5))</f>
@@ -4900,7 +5173,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4911,7 +5184,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4934,30 +5207,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B4" s="3">
         <v>187</v>
@@ -4966,13 +5239,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0160427807486631</v>
+        <v>0.2085561497326203</v>
       </c>
       <c r="E4" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F4" s="1">
-        <v>0.006022740668502783</v>
+        <v>0.1263918210753057</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -5000,7 +5273,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B5" s="3">
         <v>142</v>
@@ -5009,13 +5282,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.01408450704225352</v>
+        <v>0.2323943661971831</v>
       </c>
       <c r="E5" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F5" s="1">
-        <v>0.004064466962093201</v>
+        <v>0.1502300375398685</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -5043,7 +5316,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B6" s="3">
         <v>93</v>
@@ -5052,13 +5325,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.01075268817204301</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="E6" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F6" s="1">
-        <v>0.0007326480918826914</v>
+        <v>0.2081582519878467</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -5086,7 +5359,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B7" s="3">
         <v>73</v>
@@ -5095,13 +5368,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.0136986301369863</v>
+        <v>0.3013698630136986</v>
       </c>
       <c r="E7" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F7" s="1">
-        <v>0.00367859005682598</v>
+        <v>0.219205534356384</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -5129,7 +5402,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B8" s="3">
         <v>54</v>
@@ -5138,13 +5411,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.01851851851851852</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="E8" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F8" s="1">
-        <v>0.008498478438358197</v>
+        <v>0.2696875231945373</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -5167,6 +5440,350 @@
       </c>
       <c r="L8" s="1">
         <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="3">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.2691870226940367</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="3">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.1905629440699581</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="3">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.2119533184015089</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.1905629440699581</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="3">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.2928356713426854</v>
+      </c>
+      <c r="G13" s="1">
+        <f>1/(POWER(B13,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f>MIN(K13,1-D13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="3">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.3178356713426854</v>
+      </c>
+      <c r="G14" s="1">
+        <f>1/(POWER(B14,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f>G14*H14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K14" s="1">
+        <f>I14*J14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <f>MIN(K14,1-D14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.2511690046760187</v>
+      </c>
+      <c r="G15" s="1">
+        <f>1/(POWER(B15,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <f>SQRT((D15-POWER(10,-4))*B15*((1-D15+POWER(10,-4))*B15))</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <f>G15*H15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K15" s="1">
+        <f>I15*J15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <f>MIN(K15,1-D15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.4178356713426854</v>
+      </c>
+      <c r="G16" s="1">
+        <f>1/(POWER(B16,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <f>SQRT((D16-POWER(10,-4))*B16*((1-D16+POWER(10,-4))*B16))</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <f>G16*H16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K16" s="1">
+        <f>I16*J16</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <f>MIN(K16,1-D16)</f>
         <v>0</v>
       </c>
     </row>
@@ -5178,7 +5795,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5189,7 +5806,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5212,30 +5829,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B4" s="3">
         <v>997</v>
@@ -5244,13 +5861,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.01003009027081244</v>
+        <v>0.08124373119358075</v>
       </c>
       <c r="E4" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F4" s="1">
-        <v>1.005019065211665E-05</v>
+        <v>-0.0009205974637338799</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -5278,7 +5895,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B5" s="3">
         <v>991</v>
@@ -5287,13 +5904,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.01009081735620585</v>
+        <v>0.07769929364278506</v>
       </c>
       <c r="E5" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F5" s="1">
-        <v>7.077727604553295E-05</v>
+        <v>-0.004465035014529564</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -5321,7 +5938,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B6" s="3">
         <v>539</v>
@@ -5330,13 +5947,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.01855287569573284</v>
+        <v>0.1150278293135436</v>
       </c>
       <c r="E6" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F6" s="1">
-        <v>0.008532835615572519</v>
+        <v>0.03286350065622898</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -5364,7 +5981,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B7" s="3">
         <v>344</v>
@@ -5373,13 +5990,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.02034883720930233</v>
+        <v>0.1279069767441861</v>
       </c>
       <c r="E7" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F7" s="1">
-        <v>0.01032879712914201</v>
+        <v>0.04574264808687142</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -5407,7 +6024,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B8" s="3">
         <v>204</v>
@@ -5416,13 +6033,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.02941176470588235</v>
+        <v>0.1274509803921569</v>
       </c>
       <c r="E8" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F8" s="1">
-        <v>0.01939172462572203</v>
+        <v>0.04528665173484223</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -5450,7 +6067,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B9" s="3">
         <v>136</v>
@@ -5459,13 +6076,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.02205882352941177</v>
+        <v>0.1102941176470588</v>
       </c>
       <c r="E9" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F9" s="1">
-        <v>0.01203878344925145</v>
+        <v>0.02812978898974419</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -5488,6 +6105,178 @@
       </c>
       <c r="L9" s="1">
         <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="3">
+        <v>92</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.09782608695652174</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.01566175829920712</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="3">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-0.008090254583240558</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="3">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.05714285714285714</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-0.02502147151445749</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="3">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-0.02334079924554992</v>
+      </c>
+      <c r="G13" s="1">
+        <f>1/(POWER(B13,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f>MIN(K13,1-D13)</f>
         <v>0</v>
       </c>
     </row>
@@ -5499,7 +6288,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5510,7 +6299,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5533,30 +6322,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" s="3">
         <v>622</v>
@@ -5565,13 +6354,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0112540192926045</v>
+        <v>0.1077170418006431</v>
       </c>
       <c r="E4" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F4" s="1">
-        <v>0.001233979212444182</v>
+        <v>0.02555271314332846</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -5599,7 +6388,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" s="3">
         <v>492</v>
@@ -5608,13 +6397,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.01219512195121951</v>
+        <v>0.1158536585365854</v>
       </c>
       <c r="E5" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F5" s="1">
-        <v>0.002175081871059192</v>
+        <v>0.03368932987927074</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -5642,7 +6431,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="3">
         <v>365</v>
@@ -5651,13 +6440,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.01095890410958904</v>
+        <v>0.1342465753424658</v>
       </c>
       <c r="E6" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F6" s="1">
-        <v>0.0009388640294287209</v>
+        <v>0.05208224668515113</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -5685,7 +6474,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" s="3">
         <v>253</v>
@@ -5694,13 +6483,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.0158102766798419</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="E7" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F7" s="1">
-        <v>0.005790236599681576</v>
+        <v>0.09174871482094624</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -5728,7 +6517,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" s="3">
         <v>167</v>
@@ -5737,13 +6526,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.01796407185628742</v>
+        <v>0.1736526946107785</v>
       </c>
       <c r="E8" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F8" s="1">
-        <v>0.007944031776127104</v>
+        <v>0.09148836595346382</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -5771,7 +6560,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" s="3">
         <v>126</v>
@@ -5780,13 +6569,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.02380952380952381</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="E9" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F9" s="1">
-        <v>0.01378948372936349</v>
+        <v>0.1083118618188758</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -5814,7 +6603,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="3">
         <v>85</v>
@@ -5823,13 +6612,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.03529411764705882</v>
+        <v>0.2</v>
       </c>
       <c r="E10" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F10" s="1">
-        <v>0.0252740775668985</v>
+        <v>0.1178356713426854</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -5857,7 +6646,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B11" s="3">
         <v>65</v>
@@ -5866,13 +6655,13 @@
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.04615384615384616</v>
+        <v>0.2</v>
       </c>
       <c r="E11" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F11" s="1">
-        <v>0.03613380607368584</v>
+        <v>0.1178356713426854</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -5900,7 +6689,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B12" s="3">
         <v>41</v>
@@ -5909,13 +6698,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>0.02439024390243903</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="E12" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F12" s="1">
-        <v>0.0143702038222787</v>
+        <v>0.1129576225621976</v>
       </c>
       <c r="G12" s="1">
         <f>1/(POWER(B12,1.5))</f>
@@ -5943,7 +6732,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" s="3">
         <v>31</v>
@@ -5952,13 +6741,13 @@
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>0.03225806451612903</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="E13" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F13" s="1">
-        <v>0.02223802443596871</v>
+        <v>0.1113840584394596</v>
       </c>
       <c r="G13" s="1">
         <f>1/(POWER(B13,1.5))</f>
@@ -5986,7 +6775,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B14" s="3">
         <v>23</v>
@@ -5995,13 +6784,13 @@
         <v>11</v>
       </c>
       <c r="D14" s="3">
-        <v>0.04347826086956522</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="E14" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F14" s="1">
-        <v>0.0334582207894049</v>
+        <v>0.09174871482094624</v>
       </c>
       <c r="G14" s="1">
         <f>1/(POWER(B14,1.5))</f>
@@ -6024,6 +6813,264 @@
       </c>
       <c r="L14" s="1">
         <f>MIN(K14,1-D14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="3">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.0511690046760187</v>
+      </c>
+      <c r="G15" s="1">
+        <f>1/(POWER(B15,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <f>SQRT((D15-POWER(10,-4))*B15*((1-D15+POWER(10,-4))*B15))</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <f>G15*H15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K15" s="1">
+        <f>I15*J15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <f>MIN(K15,1-D15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="3">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.1178356713426854</v>
+      </c>
+      <c r="G16" s="1">
+        <f>1/(POWER(B16,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <f>SQRT((D16-POWER(10,-4))*B16*((1-D16+POWER(10,-4))*B16))</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <f>G16*H16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K16" s="1">
+        <f>I16*J16</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <f>MIN(K16,1-D16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="3">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.06069281419982822</v>
+      </c>
+      <c r="G17" s="1">
+        <f>1/(POWER(B17,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <f>SQRT((D17-POWER(10,-4))*B17*((1-D17+POWER(10,-4))*B17))</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <f>G17*H17</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K17" s="1">
+        <f>I17*J17</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <f>MIN(K17,1-D17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="3">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.08450233800935203</v>
+      </c>
+      <c r="G18" s="1">
+        <f>1/(POWER(B18,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <f>SQRT((D18-POWER(10,-4))*B18*((1-D18+POWER(10,-4))*B18))</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <f>G18*H18</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K18" s="1">
+        <f>I18*J18</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <f>MIN(K18,1-D18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="3">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1">
+        <v>16</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.08450233800935203</v>
+      </c>
+      <c r="G19" s="1">
+        <f>1/(POWER(B19,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <f>SQRT((D19-POWER(10,-4))*B19*((1-D19+POWER(10,-4))*B19))</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <f>G19*H19</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K19" s="1">
+        <f>I19*J19</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <f>MIN(K19,1-D19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="3">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>17</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.1178356713426854</v>
+      </c>
+      <c r="G20" s="1">
+        <f>1/(POWER(B20,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <f>SQRT((D20-POWER(10,-4))*B20*((1-D20+POWER(10,-4))*B20))</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <f>G20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K20" s="1">
+        <f>I20*J20</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <f>MIN(K20,1-D20)</f>
         <v>0</v>
       </c>
     </row>
@@ -6035,7 +7082,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6046,7 +7093,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6069,30 +7116,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B4" s="3">
         <v>998</v>
@@ -6101,10 +7148,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="E4" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -6135,7 +7182,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="B5" s="3">
         <v>683</v>
@@ -6144,13 +7191,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.008784773060029283</v>
+        <v>0.05856515373352855</v>
       </c>
       <c r="E5" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F5" s="1">
-        <v>-0.001235267020131037</v>
+        <v>-0.02359917492378608</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -6178,7 +7225,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="B6" s="3">
         <v>95</v>
@@ -6187,13 +7234,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.01052631578947368</v>
+        <v>0.1368421052631579</v>
       </c>
       <c r="E6" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F6" s="1">
-        <v>0.0005062757093133637</v>
+        <v>0.05467777660584328</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -6216,6 +7263,221 @@
       </c>
       <c r="L6" s="1">
         <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="3">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.1153846153846154</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.03322028672730076</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="3">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.1304347826086956</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.04827045395138102</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="3">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.06069281419982822</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="3">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.008744762251776284</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="3">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.06069281419982822</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
         <v>0</v>
       </c>
     </row>
@@ -6227,7 +7489,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6238,7 +7500,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6261,30 +7523,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="B4" s="3">
         <v>398</v>
@@ -6293,13 +7555,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.02010050251256281</v>
+        <v>0.1105527638190955</v>
       </c>
       <c r="E4" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F4" s="1">
-        <v>0.01008046243240249</v>
+        <v>0.02838843516178086</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -6327,7 +7589,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="B5" s="3">
         <v>157</v>
@@ -6336,13 +7598,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.03821656050955414</v>
+        <v>0.1719745222929936</v>
       </c>
       <c r="E5" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="F5" s="1">
-        <v>0.02819652042939382</v>
+        <v>0.08981019363567899</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -6365,6 +7627,221 @@
       </c>
       <c r="L5" s="1">
         <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="3">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.0511690046760187</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="3">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.186046511627907</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.1038821829705923</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="3">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.1578356713426854</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="3">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.1531297889897442</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.08216432865731463</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.04283567134268537</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
         <v>0</v>
       </c>
     </row>
